--- a/db/uploads/requirements.xlsx
+++ b/db/uploads/requirements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ansellgabrieldelayre/Sites/Claims/db/uploads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ansellgabrieldelayre/Sites/cis_life_main/db/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB46051-BC5A-B745-976F-D03045925BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E885064-F3B7-6946-AF54-01983A845E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{F30CF295-813B-F14D-A5C9-E01DB619F384}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Certified True Copy of Death Certificate</t>
   </si>
@@ -43,9 +42,6 @@
     <t>Attending Physician's Statement</t>
   </si>
   <si>
-    <t>Claimants Statement</t>
-  </si>
-  <si>
     <t>Police Report or Incident Report or Barangay Certification</t>
   </si>
   <si>
@@ -67,9 +63,6 @@
     <t>Certified True Photocopy of Passport</t>
   </si>
   <si>
-    <t>Affidavit of Late Filing</t>
-  </si>
-  <si>
     <t>Official Receipt or Billing Statement</t>
   </si>
   <si>
@@ -79,13 +72,85 @@
     <t>Statement of Account (SOA) / Hospital Billing and corresponding Charge Slips from the Hospital</t>
   </si>
   <si>
-    <t>(stamp of Certified True Copy must be original &amp; not photocopy/scanned copy)</t>
-  </si>
-  <si>
-    <t>(if attended by a physician)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(if cause of death was due to accident or murder and assault) </t>
+    <t>Stamp of Certified True Copy must be original &amp; not photocopy/scanned copy</t>
+  </si>
+  <si>
+    <t>If attended by a physician</t>
+  </si>
+  <si>
+    <t>Claimant’s Statement</t>
+  </si>
+  <si>
+    <t>Notarization of Claimant’s Statement can be waived provided that a Proof of Relationship will be submitted such as “Birth Certificate” or “Marriage Certificate”. Note: Claimant’s Statement Form need NOT be notarized if claim benefit is within 1CISP’s Retention Limit. 1CISP will recognize Claimant’s Statement Form signed by the cooperative’s General / Manager / President / Chairman</t>
+  </si>
+  <si>
+    <t>if cause of death was due to accident or murder and assault</t>
+  </si>
+  <si>
+    <t>Loan Ledger</t>
+  </si>
+  <si>
+    <t>Certified True Copy of Loan Ledger duly signed by Authorized Representative of Cooperative; The date the loan was made must be reflected. The amount of loan repayments and loan balance must be clear and readable) – LPPI plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certified True Copy of Monthly Amortization Schedule </t>
+  </si>
+  <si>
+    <t>(the ledger must reflect “zero balance”) – LPPI plan</t>
+  </si>
+  <si>
+    <t>Certified True Copy of Share Capital</t>
+  </si>
+  <si>
+    <t>Certified True Copy of Share Capital and/or Savings Passbook duly signed by the Manager of the Cooperative</t>
+  </si>
+  <si>
+    <t>Certified True Copy of Savings Passbook</t>
+  </si>
+  <si>
+    <t>(if there is discrepancy/ies in the name or date of birth of the deceased insured and/or beneficiary)</t>
+  </si>
+  <si>
+    <t>(if the claimant is not the declared beneficiary)</t>
+  </si>
+  <si>
+    <t>(if the claimant or beneficiary is a minor)</t>
+  </si>
+  <si>
+    <t>Death Certificate – authenticated by the Phil. Statistics Authority</t>
+  </si>
+  <si>
+    <t>(must be submitted to Claims Dept. if the insured died abroad. 1CISP shall accept Original Copy of Death Certificate abroad as long as it is translated in English. Further, if the original copy of said document cannot be submitted, the assigned 1CISP marketing personnel or cooperative’s General Manager / President / Chairman must take a picture of the original copy of the death certificate and certify that he/she has seen it)</t>
+  </si>
+  <si>
+    <t>(if the insured died abroad; The pages of the passport must indicate the entry and exit date of the insured in the Philippines)</t>
+  </si>
+  <si>
+    <t>Barangay Certification</t>
+  </si>
+  <si>
+    <t>should state that that the deceased-insured and claimant are living together for x number of years</t>
+  </si>
+  <si>
+    <t>Certificate of No Marriage (CENOMAR)</t>
+  </si>
+  <si>
+    <t>deceased-insured and claimant (if the claimant is a common law partner)</t>
+  </si>
+  <si>
+    <t>Notarized Affidavit of Late Filing</t>
+  </si>
+  <si>
+    <t>(reason for late filing must be indicated)</t>
+  </si>
+  <si>
+    <t>Proof that will support  the Notarized Affidavit of Late Filing</t>
+  </si>
+  <si>
+    <t>(required if surgery is done)</t>
+  </si>
+  <si>
+    <t>Original Official Receipts paid to the hospital or doctor/s</t>
   </si>
 </sst>
 </file>
@@ -437,20 +502,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D09B1A-D454-D04C-9900-B212021F0782}">
-  <dimension ref="A2:B16"/>
+  <dimension ref="A2:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="81.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -458,17 +527,20 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -476,57 +548,136 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
